--- a/simulations/cleaned_inclusion_exclusion/Chou_2003 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Chou_2003 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,31 +713,31 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.06666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D3">
-        <v>0.06666666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E3">
         <v>0.9333333333333333</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.4973794549266247</v>
+        <v>0.4842767295597484</v>
       </c>
       <c r="I3">
-        <v>0.351153372072548</v>
+        <v>0.1164289487585843</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K3">
-        <v>672.7333333333333</v>
+        <v>228.4</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -755,34 +755,34 @@
         <v>13</v>
       </c>
       <c r="Q3">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="R3">
-        <v>625</v>
+        <v>37</v>
       </c>
       <c r="S3">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="T3">
-        <v>647</v>
+        <v>85</v>
       </c>
       <c r="U3">
-        <v>755</v>
+        <v>203</v>
       </c>
       <c r="V3">
-        <v>1740</v>
+        <v>1856</v>
       </c>
       <c r="W3">
-        <v>1268</v>
+        <v>1856</v>
       </c>
       <c r="X3">
-        <v>1255</v>
+        <v>1839</v>
       </c>
       <c r="Y3">
-        <v>1246</v>
+        <v>1808</v>
       </c>
       <c r="Z3">
-        <v>1138</v>
+        <v>1690</v>
       </c>
       <c r="AA3">
         <v>14</v>
@@ -800,19 +800,19 @@
         <v>2</v>
       </c>
       <c r="AF3">
-        <v>0.919176</v>
+        <v>0.980454</v>
       </c>
       <c r="AG3">
-        <v>0.669836</v>
+        <v>0.980454</v>
       </c>
       <c r="AH3">
-        <v>0.662969</v>
+        <v>0.9714739999999999</v>
       </c>
       <c r="AI3">
-        <v>0.658214</v>
+        <v>0.955098</v>
       </c>
       <c r="AJ3">
-        <v>0.601162</v>
+        <v>0.892763</v>
       </c>
     </row>
   </sheetData>
